--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543DC4D2-474E-4FA0-A7AF-F00BB1A49ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="DLYT" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,102 +654,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,57 +790,81 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +877,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +913,20 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,40 +957,64 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="I14" s="3">
         <v>-200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-700</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1045,20 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,8 +1068,12 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1009,13 +1081,13 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1024,48 +1096,72 @@
         <v>800</v>
       </c>
       <c r="J17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,72 +1174,100 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
       <c r="H21" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
       </c>
       <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1151,63 +1275,87 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,8 +1386,20 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1430,108 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
         <v>-700</v>
       </c>
       <c r="G26" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
       </c>
       <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F27" s="3">
         <v>-700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,8 +1562,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1398,8 +1606,20 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1650,20 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,72 +1694,108 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F33" s="3">
         <v>-700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1826,113 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F35" s="3">
         <v>-700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1945,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,40 +1963,56 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1719,19 +2043,31 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1740,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1749,15 +2085,27 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -1769,7 +2117,7 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -1783,8 +2131,20 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1795,19 +2155,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1815,40 +2175,64 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,19 +2263,31 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -1911,8 +2307,20 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1926,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -1938,13 +2346,25 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2395,20 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,8 +2439,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2039,8 +2483,20 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2527,64 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2597,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,28 +2615,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -2161,106 +2649,154 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2291,40 +2827,64 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +2915,20 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +2959,20 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,40 +3003,64 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +3073,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +3109,20 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +3153,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +3197,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +3241,64 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-49100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-48500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-47800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-47100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-45700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-45100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-44100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +3329,20 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3373,20 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +3417,64 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3505,113 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F81" s="3">
         <v>-700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,8 +3624,12 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2900,8 +3660,20 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +3704,20 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3748,20 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +3792,20 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +3836,20 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,40 +3880,64 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,40 +3950,56 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +4030,20 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,8 +4074,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3234,8 +4118,20 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,8 +4144,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3280,8 +4180,20 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +4224,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +4268,20 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,40 +4312,64 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>300</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3440,36 +4400,60 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,152 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -799,28 +819,37 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +857,52 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1019,17 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,34 +1046,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1149,64 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1214,52 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,184 +1276,223 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-500</v>
       </c>
       <c r="K21" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1906,123 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2224,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,22 +2324,31 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2085,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2097,10 +2375,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,7 +2404,7 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2126,7 +2413,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2143,8 +2430,17 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2170,54 +2466,63 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -2226,13 +2531,22 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2589,17 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2290,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2319,13 +2642,22 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2334,17 +2666,17 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>100</v>
-      </c>
       <c r="K49" s="3">
         <v>100</v>
       </c>
@@ -2358,13 +2690,22 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2801,17 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2907,17 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2551,40 +2928,49 @@
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
         <v>600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>500</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +3008,11 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,180 +3020,216 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1800</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="3">
         <v>8700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2839,8 +3267,17 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2865,26 +3302,35 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G66" s="3">
         <v>8700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>8100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>8000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-52800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-51600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-50900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-50100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-49100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-48500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-47800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-47100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-45700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-45100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-44100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-43700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-7600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-7400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4221,11 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4533,22 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3907,22 +4557,22 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
@@ -3931,13 +4581,22 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3986,20 +4648,29 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4766,17 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +5052,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4339,37 +5076,46 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
       </c>
       <c r="K100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +5158,22 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4427,33 +5182,42 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -787,21 +791,24 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -810,7 +817,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -819,10 +826,10 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -831,7 +838,7 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -840,36 +847,39 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -878,13 +888,13 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -896,13 +906,16 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1178,14 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1167,99 +1194,105 @@
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,99 +1312,103 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
@@ -1380,13 +1417,16 @@
         <v>-400</v>
       </c>
       <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S21" s="3">
         <v>1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,105 +1434,111 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,16 +2313,17 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2248,25 +2335,25 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2278,10 +2365,13 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2384,10 +2477,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2413,10 +2509,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2439,22 +2535,25 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2463,16 +2562,16 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2481,27 +2580,30 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -2513,19 +2615,19 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -2540,13 +2642,16 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2622,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,7 +2771,7 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2675,11 +2786,11 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3">
-        <v>100</v>
-      </c>
       <c r="L49" s="3">
         <v>100</v>
       </c>
@@ -2699,13 +2810,16 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -2937,25 +3063,25 @@
         <v>400</v>
       </c>
       <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -2967,10 +3093,13 @@
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,220 +3141,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2000</v>
       </c>
       <c r="L58" s="3">
         <v>2000</v>
       </c>
       <c r="M58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3300</v>
       </c>
       <c r="M59" s="3">
         <v>3300</v>
       </c>
       <c r="N59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E60" s="3">
         <v>10200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3311,26 +3457,29 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-43700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4657,20 +4878,23 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,16 +5416,19 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5191,22 +5443,22 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5215,9 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,143 +678,170 @@
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -823,13 +850,13 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -841,81 +868,105 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +987,12 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1047,20 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1115,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>-1100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1078,34 +1157,46 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="Q14" s="3">
         <v>-200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-700</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1251,20 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1282,23 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1200,25 +1307,25 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
@@ -1227,72 +1334,96 @@
         <v>800</v>
       </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>800</v>
+      </c>
+      <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1000</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,232 +1444,284 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
       </c>
       <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W21" s="3">
         <v>1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
       </c>
       <c r="O23" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="P23" s="3">
         <v>-600</v>
       </c>
       <c r="Q23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1776,20 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1844,156 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
       </c>
       <c r="O26" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="P26" s="3">
         <v>-600</v>
       </c>
       <c r="Q26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
       </c>
       <c r="N27" s="3">
         <v>-700</v>
       </c>
       <c r="O27" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="P27" s="3">
         <v>-600</v>
       </c>
       <c r="Q27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +2048,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2116,20 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2184,20 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2252,156 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
       </c>
       <c r="N33" s="3">
         <v>-700</v>
       </c>
       <c r="O33" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="P33" s="3">
         <v>-600</v>
       </c>
       <c r="Q33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2456,161 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
       </c>
       <c r="N35" s="3">
         <v>-700</v>
       </c>
       <c r="O35" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="P35" s="3">
         <v>-600</v>
       </c>
       <c r="Q35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2631,12 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2657,17 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2335,43 +2682,55 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,25 +2785,37 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2456,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2471,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2480,10 +2851,22 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2512,7 +2895,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2524,7 +2907,7 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2538,13 +2921,25 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2556,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2574,19 +2969,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2594,64 +2989,88 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +3125,20 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2733,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2762,8 +3193,20 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,35 +3217,35 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
       </c>
       <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3">
-        <v>100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
-      </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
@@ -2813,13 +3256,25 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
         <v>200</v>
       </c>
-      <c r="T49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3329,20 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3397,20 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3465,20 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3533,88 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>500</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3635,12 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,16 +3661,20 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
@@ -3160,34 +3683,34 @@
         <v>1000</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -3196,178 +3719,226 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>600</v>
+      </c>
+      <c r="U57" s="3">
+        <v>600</v>
+      </c>
+      <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>2700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F60" s="3">
         <v>10600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I60" s="3">
         <v>10200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>11900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>10000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>8700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,19 +3946,19 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3422,8 +3993,20 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3460,26 +4043,38 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="U62" s="3">
         <v>2200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="V62" s="3">
         <v>1600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="W62" s="3">
         <v>1500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="X62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4129,20 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4197,20 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4265,88 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H66" s="3">
         <v>10900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>11900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>10000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>8700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>8100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>8000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>7200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4367,12 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4427,20 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4495,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4563,20 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4631,88 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-55100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-54600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-56000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-54200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-52800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-51600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-50900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-50100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-49100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-48500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-47800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-47100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-45700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-45100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-44100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>-43700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4767,20 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4835,20 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4903,88 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-10600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-11500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-8300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-7600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>-4900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>-3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>-2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +5039,161 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
       </c>
       <c r="N81" s="3">
         <v>-700</v>
       </c>
       <c r="O81" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="P81" s="3">
         <v>-600</v>
       </c>
       <c r="Q81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5214,12 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5342,20 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5410,20 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5478,20 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5546,20 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5614,88 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5716,12 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4881,20 +5764,32 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5844,20 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5912,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5980,20 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +6014,12 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +6074,20 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +6142,20 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +6210,20 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,16 +6278,28 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -5325,46 +6308,58 @@
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>400</v>
+      </c>
+      <c r="R100" s="3">
+        <v>300</v>
+      </c>
+      <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +6414,84 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,40 +782,40 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
@@ -821,16 +824,19 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,20 +844,20 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
@@ -859,7 +865,7 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -868,10 +874,10 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
@@ -880,7 +886,7 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -889,16 +895,19 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,34 +915,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -942,13 +951,13 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -960,13 +969,16 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>1600</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,23 +1143,26 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1169,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-700</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,28 +1311,29 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1316,114 +1342,120 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-400</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
       </c>
       <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,120 +1490,123 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-400</v>
       </c>
       <c r="U21" s="3">
         <v>-400</v>
@@ -1579,149 +1615,158 @@
         <v>-400</v>
       </c>
       <c r="W21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X21" s="3">
         <v>1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
       </c>
       <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-700</v>
       </c>
       <c r="R23" s="3">
         <v>-700</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-700</v>
       </c>
       <c r="R26" s="3">
         <v>-700</v>
       </c>
       <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-700</v>
       </c>
       <c r="R27" s="3">
         <v>-700</v>
       </c>
       <c r="S27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,135 +2342,141 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-700</v>
       </c>
       <c r="R33" s="3">
         <v>-700</v>
       </c>
       <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-700</v>
       </c>
       <c r="R35" s="3">
         <v>-700</v>
       </c>
       <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,19 +2746,20 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2682,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2697,25 +2783,25 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2727,10 +2813,13 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,7 +2898,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2821,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2863,10 +2955,13 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2907,10 +3002,10 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -2933,19 +3028,22 @@
       <c r="X44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2954,16 +3052,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2972,16 +3070,16 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2990,42 +3088,45 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -3037,19 +3138,19 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3064,13 +3165,16 @@
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3176,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3229,7 +3339,7 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -3244,11 +3354,11 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3">
-        <v>100</v>
-      </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
@@ -3268,13 +3378,16 @@
         <v>100</v>
       </c>
       <c r="W49" s="3">
+        <v>100</v>
+      </c>
+      <c r="X49" s="3">
         <v>200</v>
       </c>
-      <c r="X49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,19 +3667,22 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
@@ -3566,7 +3691,7 @@
         <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
@@ -3581,25 +3706,25 @@
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
@@ -3611,10 +3736,13 @@
         <v>400</v>
       </c>
       <c r="X54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3794,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
@@ -3686,259 +3816,271 @@
         <v>1000</v>
       </c>
       <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
       </c>
       <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3600</v>
       </c>
       <c r="G58" s="3">
         <v>3600</v>
       </c>
       <c r="H58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2000</v>
       </c>
       <c r="Q58" s="3">
         <v>2000</v>
       </c>
       <c r="R58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>3300</v>
       </c>
       <c r="R59" s="3">
         <v>3300</v>
       </c>
       <c r="S59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,13 +4088,13 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>400</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -3961,7 +4103,7 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4055,26 +4200,29 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>2200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-55200</v>
       </c>
       <c r="F72" s="3">
         <v>-55200</v>
       </c>
       <c r="G72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-57000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-47100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-45700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-45100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-44100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-43700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-700</v>
       </c>
       <c r="R81" s="3">
         <v>-700</v>
       </c>
       <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,16 +5839,19 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -5644,58 +5860,61 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5776,20 +5996,23 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
-      </c>
-      <c r="R100" s="3">
-        <v>300</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
       </c>
       <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,31 +6674,34 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6465,22 +6716,22 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6489,9 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,185 +793,197 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>500</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
       </c>
       <c r="R8" s="3">
+        <v>500</v>
+      </c>
+      <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -972,13 +992,19 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1600</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,29 +1180,35 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1191,34 +1231,40 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-200</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3">
-        <v>-700</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>-700</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>-100</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-700</v>
       </c>
       <c r="W18" s="3">
         <v>-400</v>
       </c>
       <c r="X18" s="3">
-        <v>1000</v>
+        <v>-700</v>
       </c>
       <c r="Y18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,167 +1561,179 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-400</v>
       </c>
       <c r="W21" s="3">
         <v>-400</v>
       </c>
       <c r="X21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>400</v>
-      </c>
       <c r="L22" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1662,111 +1742,123 @@
         <v>600</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>800</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>800</v>
+      </c>
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
-        <v>100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,138 +2485,150 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,37 +2919,39 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2786,20 +2960,20 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
@@ -2807,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2816,10 +2990,16 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,13 +3084,13 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2916,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2934,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2958,15 +3144,21 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -3005,13 +3197,13 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -3031,108 +3223,120 @@
       <c r="Y44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -3141,22 +3345,22 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
@@ -3168,13 +3372,19 @@
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3286,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3342,10 +3564,10 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -3357,14 +3579,14 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3">
-        <v>100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>100</v>
-      </c>
       <c r="S49" s="3">
         <v>100</v>
       </c>
@@ -3381,13 +3603,19 @@
         <v>100</v>
       </c>
       <c r="X49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z49" s="3">
         <v>200</v>
       </c>
-      <c r="Y49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,34 +3916,40 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
         <v>500</v>
       </c>
       <c r="F54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
@@ -3709,7 +3961,7 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -3718,10 +3970,10 @@
         <v>600</v>
       </c>
       <c r="R54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T54" s="3">
         <v>500</v>
@@ -3730,7 +3982,7 @@
         <v>400</v>
       </c>
       <c r="V54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
@@ -3739,10 +3991,16 @@
         <v>400</v>
       </c>
       <c r="Y54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,22 +4055,24 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
@@ -3819,268 +4081,292 @@
         <v>1000</v>
       </c>
       <c r="J57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3500</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
       </c>
       <c r="L58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F60" s="3">
         <v>9200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>12500</v>
       </c>
       <c r="I60" s="3">
         <v>10600</v>
       </c>
       <c r="J60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L60" s="3">
         <v>10200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,25 +4377,25 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4203,26 +4495,32 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-55400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-55200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-55200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-57000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-55100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-56000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-54200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-52800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-51600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-50900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-50100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-49100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-48500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-47800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-47100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-45700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-45100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-44100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-43700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-7200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-10700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-12500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-10600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-11500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-8300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5954,17 +6396,17 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5999,20 +6441,26 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,64 +7021,70 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
-      </c>
-      <c r="T100" s="3">
-        <v>300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>300</v>
@@ -6601,13 +7093,19 @@
         <v>200</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,37 +7175,43 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6719,33 +7223,39 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -799,40 +803,40 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
@@ -841,25 +845,28 @@
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
@@ -867,20 +874,20 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
@@ -888,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
@@ -897,10 +904,10 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
@@ -909,7 +916,7 @@
         <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -918,25 +925,28 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
@@ -944,34 +954,34 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -980,13 +990,13 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -998,13 +1008,16 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1600</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,32 +1203,35 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1237,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-700</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,37 +1392,38 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1405,123 +1432,129 @@
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
+        <v>700</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
       <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-400</v>
       </c>
       <c r="W18" s="3">
         <v>-400</v>
       </c>
       <c r="X18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,129 +1601,132 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
         <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-400</v>
       </c>
       <c r="X21" s="3">
         <v>-400</v>
@@ -1698,167 +1735,176 @@
         <v>-400</v>
       </c>
       <c r="Z21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>500</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
-        <v>100</v>
-      </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-700</v>
       </c>
       <c r="U23" s="3">
         <v>-700</v>
       </c>
       <c r="V23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-700</v>
       </c>
       <c r="U26" s="3">
         <v>-700</v>
       </c>
       <c r="V26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-700</v>
       </c>
       <c r="U27" s="3">
         <v>-700</v>
       </c>
       <c r="V27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2491,144 +2561,150 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-700</v>
       </c>
       <c r="U33" s="3">
         <v>-700</v>
       </c>
       <c r="V33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-700</v>
       </c>
       <c r="U35" s="3">
         <v>-700</v>
       </c>
       <c r="V35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,28 +3007,29 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2951,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2966,25 +3053,25 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2996,10 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,16 +3177,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3108,31 +3201,31 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3150,10 +3243,13 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3161,7 +3257,7 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -3203,10 +3299,10 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3241,16 +3340,16 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3259,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3277,16 +3376,16 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3295,51 +3394,54 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -3351,19 +3453,19 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
@@ -3378,13 +3480,16 @@
         <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3508,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3570,7 +3681,7 @@
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3585,11 +3696,11 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3">
-        <v>100</v>
-      </c>
       <c r="T49" s="3">
         <v>100</v>
       </c>
@@ -3609,13 +3720,16 @@
         <v>100</v>
       </c>
       <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="3">
         <v>200</v>
       </c>
-      <c r="AA49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,28 +4045,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
@@ -3952,7 +4078,7 @@
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
@@ -3967,25 +4093,25 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>400</v>
@@ -3997,10 +4123,13 @@
         <v>400</v>
       </c>
       <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,16 +4197,16 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
@@ -4087,291 +4218,303 @@
         <v>1000</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
       </c>
       <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="S57" s="3">
         <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>600</v>
       </c>
       <c r="Y57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3600</v>
       </c>
       <c r="J58" s="3">
         <v>3600</v>
       </c>
       <c r="K58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2000</v>
       </c>
       <c r="T58" s="3">
         <v>2000</v>
       </c>
       <c r="U58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>3300</v>
       </c>
       <c r="U59" s="3">
         <v>3300</v>
       </c>
       <c r="V59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W59" s="3">
         <v>2900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -4383,13 +4526,13 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -4398,7 +4541,7 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4501,26 +4647,29 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>2200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E66" s="3">
         <v>11000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-55200</v>
       </c>
       <c r="I72" s="3">
         <v>-55200</v>
       </c>
       <c r="J72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-57000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-52800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-51600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-50900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-50100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-49100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-48500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-47800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-47100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-45700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-44100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-43700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-700</v>
       </c>
       <c r="U81" s="3">
         <v>-700</v>
       </c>
       <c r="V81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,25 +6490,28 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -6303,58 +6520,61 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
       <c r="V89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6396,8 +6617,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -6408,8 +6629,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6447,20 +6668,23 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
-      </c>
-      <c r="U100" s="3">
-        <v>300</v>
       </c>
       <c r="V100" s="3">
         <v>300</v>
       </c>
       <c r="W100" s="3">
+        <v>300</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,40 +7430,43 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7229,22 +7481,22 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7253,9 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -6620,14 +6620,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,145 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
@@ -806,108 +817,117 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>1600</v>
       </c>
-      <c r="AB8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
@@ -916,28 +936,37 @@
         <v>200</v>
       </c>
       <c r="V9" s="3">
+        <v>300</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,79 +974,88 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
       <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>1600</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,19 +1084,22 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1167,17 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,41 +1256,50 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1260,34 +1319,43 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="X14" s="3">
         <v>-200</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1434,17 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1470,189 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
       <c r="X17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-700</v>
       </c>
       <c r="Z18" s="3">
         <v>-400</v>
       </c>
       <c r="AA18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD18" s="3">
         <v>1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AE18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1681,11 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1604,152 +1705,170 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>2200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1900</v>
       </c>
       <c r="N20" s="3">
         <v>-1300</v>
       </c>
       <c r="O20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
-      </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-200</v>
       </c>
       <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1700</v>
       </c>
       <c r="N21" s="3">
         <v>-1500</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
       </c>
       <c r="V21" s="3">
         <v>-500</v>
       </c>
       <c r="W21" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>-400</v>
       </c>
       <c r="Y21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD21" s="3">
         <v>1100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AE21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
@@ -1758,19 +1877,19 @@
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
-      </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1779,132 +1898,150 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Z22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
-      <c r="Z22" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="F23" s="3">
         <v>-1100</v>
       </c>
       <c r="G23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-600</v>
       </c>
       <c r="U23" s="3">
         <v>-700</v>
       </c>
       <c r="V23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AD23" s="3">
         <v>1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2120,17 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2209,195 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="F26" s="3">
         <v>-1100</v>
       </c>
       <c r="G26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-600</v>
       </c>
       <c r="U26" s="3">
         <v>-700</v>
       </c>
       <c r="V26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AD26" s="3">
         <v>1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="F27" s="3">
         <v>-1100</v>
       </c>
       <c r="G27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-600</v>
       </c>
       <c r="U27" s="3">
         <v>-700</v>
       </c>
       <c r="V27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AD27" s="3">
         <v>1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2476,17 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2565,17 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2654,17 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2743,17 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2564,147 +2773,165 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1900</v>
       </c>
       <c r="N32" s="3">
         <v>1300</v>
       </c>
       <c r="O32" s="3">
+        <v>200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>200</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="F33" s="3">
         <v>-1100</v>
       </c>
       <c r="G33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-600</v>
       </c>
       <c r="U33" s="3">
         <v>-700</v>
       </c>
       <c r="V33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AD33" s="3">
         <v>1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +3010,200 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="F35" s="3">
         <v>-1100</v>
       </c>
       <c r="G35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-600</v>
       </c>
       <c r="U35" s="3">
         <v>-700</v>
       </c>
       <c r="V35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AD35" s="3">
         <v>1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3232,11 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,40 +3265,43 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3050,46 +3310,55 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,19 +3437,28 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3192,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3204,22 +3482,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3234,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3246,28 +3524,37 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
@@ -3302,7 +3589,7 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -3311,7 +3598,7 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>100</v>
@@ -3328,8 +3615,17 @@
       <c r="AB44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,13 +3633,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3355,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3373,13 +3669,13 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3391,39 +3687,48 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
@@ -3432,49 +3737,49 @@
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
@@ -3483,13 +3788,22 @@
         <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3882,17 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3619,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3648,16 +3971,25 @@
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -3684,13 +4016,13 @@
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3699,17 +4031,17 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
         <v>200</v>
       </c>
-      <c r="T49" s="3">
-        <v>100</v>
-      </c>
-      <c r="U49" s="3">
-        <v>100</v>
-      </c>
-      <c r="V49" s="3">
-        <v>100</v>
-      </c>
       <c r="W49" s="3">
         <v>100</v>
       </c>
@@ -3723,13 +4055,22 @@
         <v>100</v>
       </c>
       <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD49" s="3">
         <v>200</v>
       </c>
-      <c r="AB49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4149,17 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4238,17 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4327,17 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,46 +4416,55 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>700</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -4096,40 +4473,49 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>600</v>
-      </c>
-      <c r="U54" s="3">
-        <v>500</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
       </c>
       <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
         <v>500</v>
-      </c>
-      <c r="X54" s="3">
-        <v>400</v>
       </c>
       <c r="Y54" s="3">
         <v>400</v>
       </c>
       <c r="Z54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA54" s="3">
         <v>400</v>
       </c>
       <c r="AB54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4544,11 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,40 +4577,43 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1000</v>
       </c>
       <c r="L57" s="3">
         <v>1000</v>
       </c>
       <c r="M57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
@@ -4233,283 +4625,319 @@
         <v>900</v>
       </c>
       <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AC57" s="3">
         <v>500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AD57" s="3">
         <v>400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AE57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>2500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>2000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>1300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AB58" s="3">
         <v>600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AC58" s="3">
         <v>500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AD58" s="3">
         <v>400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AE58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>4700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>4800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>3300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>2900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>2700</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>1800</v>
       </c>
       <c r="AB59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G60" s="3">
         <v>11900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>9700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>10600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>12500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>10600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>10200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>11900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>10000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>8700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>8100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>8000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>7200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>6400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>5700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>5300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>4600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>4100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>1400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>2600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AE60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,40 +4945,40 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
       </c>
       <c r="L61" s="3">
+        <v>400</v>
+      </c>
+      <c r="M61" s="3">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4588,8 +5016,17 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4650,26 +5087,35 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3" t="s">
+      <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AB62" s="3">
         <v>2200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AC62" s="3">
         <v>1600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AD62" s="3">
         <v>1500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AE62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5194,17 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5283,17 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5372,106 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G66" s="3">
         <v>12100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>11000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>12800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>10900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>10500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>11900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>10000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>8700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>8100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>8000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>7200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>6400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>5700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>5300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>4600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>4100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>3600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>2800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>2600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AE66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5500,11 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5583,17 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5672,17 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5761,17 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5850,106 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-61200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-60100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-58900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-57800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-55400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-55200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-55200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-57000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-55100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-54600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-56000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-54200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-51600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-50900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-50100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-49100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-48500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-47800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-47100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-45700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>-44100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>-43700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AE72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +6028,17 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +6117,17 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6206,106 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-11400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-10400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-9500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-7300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-7200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-10700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-12500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-10600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-11500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-7600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-7400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-6800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-5800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-5200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-4900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-4200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AE76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6384,200 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1200</v>
+        <v>-2000</v>
       </c>
       <c r="F81" s="3">
         <v>-1100</v>
       </c>
       <c r="G81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-600</v>
       </c>
       <c r="U81" s="3">
         <v>-700</v>
       </c>
       <c r="V81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AD81" s="3">
         <v>1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6606,11 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6689,17 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6778,17 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6867,17 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6956,17 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +7045,17 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,49 +7134,58 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -6544,22 +7194,22 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
@@ -6568,13 +7218,22 @@
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7262,11 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6629,18 +7291,18 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6671,20 +7333,29 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7434,17 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7523,17 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7612,17 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7651,11 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7734,17 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7823,17 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7912,17 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,49 +8001,58 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -7324,37 +8061,46 @@
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>300</v>
       </c>
       <c r="W100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y100" s="3">
         <v>300</v>
       </c>
       <c r="Z100" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
       <c r="AB100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,49 +8179,58 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7484,33 +8239,42 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>DLYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,152 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
@@ -826,40 +830,40 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>300</v>
       </c>
       <c r="Y8" s="3">
         <v>300</v>
       </c>
       <c r="Z8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA8" s="3">
         <v>100</v>
@@ -868,37 +872,40 @@
         <v>100</v>
       </c>
       <c r="AC8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1600</v>
       </c>
-      <c r="AE8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
@@ -906,20 +913,20 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
@@ -927,7 +934,7 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
@@ -936,10 +943,10 @@
         <v>200</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
-      </c>
-      <c r="W9" s="3">
-        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>200</v>
@@ -948,7 +955,7 @@
         <v>200</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
@@ -957,37 +964,40 @@
         <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3">
         <v>0</v>
       </c>
       <c r="AE9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -995,34 +1005,34 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>200</v>
@@ -1031,13 +1041,13 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
@@ -1049,13 +1059,16 @@
         <v>0</v>
       </c>
       <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
         <v>1600</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,22 +1100,23 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
+      <c r="G12" s="3">
+        <v>100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,44 +1282,47 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1328,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,49 +1499,50 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1524,135 +1551,141 @@
         <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>500</v>
       </c>
       <c r="AA17" s="3">
         <v>500</v>
       </c>
       <c r="AB17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-400</v>
       </c>
       <c r="AA18" s="3">
         <v>-400</v>
       </c>
       <c r="AB18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1714,141 +1748,144 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>100</v>
-      </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-400</v>
       </c>
       <c r="AB21" s="3">
         <v>-400</v>
@@ -1857,191 +1894,200 @@
         <v>-400</v>
       </c>
       <c r="AD21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AE21" s="3">
         <v>1100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>500</v>
       </c>
       <c r="V22" s="3">
         <v>500</v>
       </c>
       <c r="W22" s="3">
+        <v>500</v>
+      </c>
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>500</v>
       </c>
-      <c r="AC22" s="3">
-        <v>100</v>
-      </c>
       <c r="AD22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1100</v>
       </c>
       <c r="G23" s="3">
         <v>-1100</v>
       </c>
       <c r="H23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-700</v>
       </c>
       <c r="Y23" s="3">
         <v>-700</v>
       </c>
       <c r="Z23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1100</v>
       </c>
       <c r="G26" s="3">
         <v>-1100</v>
       </c>
       <c r="H26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-700</v>
       </c>
       <c r="Y26" s="3">
         <v>-700</v>
       </c>
       <c r="Z26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1100</v>
       </c>
       <c r="G27" s="3">
         <v>-1100</v>
       </c>
       <c r="H27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-700</v>
       </c>
       <c r="Y27" s="3">
         <v>-700</v>
       </c>
       <c r="Z27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2782,156 +2852,162 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
-        <v>100</v>
-      </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1100</v>
       </c>
       <c r="G33" s="3">
         <v>-1100</v>
       </c>
       <c r="H33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-700</v>
       </c>
       <c r="Y33" s="3">
         <v>-700</v>
       </c>
       <c r="Z33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1100</v>
       </c>
       <c r="G35" s="3">
         <v>-1100</v>
       </c>
       <c r="H35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-700</v>
       </c>
       <c r="Y35" s="3">
         <v>-700</v>
       </c>
       <c r="Z35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3283,25 +3370,25 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3310,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -3325,25 +3412,25 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -3355,10 +3442,13 @@
         <v>0</v>
       </c>
       <c r="AE41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,28 +3548,28 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3491,31 +3584,31 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3533,15 +3626,18 @@
         <v>0</v>
       </c>
       <c r="AE43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -3550,13 +3646,13 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -3598,10 +3694,10 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
         <v>100</v>
@@ -3624,22 +3720,25 @@
       <c r="AE44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3648,16 +3747,16 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3666,16 +3765,16 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3684,16 +3783,16 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3702,63 +3801,66 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
         <v>100</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
       <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
@@ -3770,19 +3872,19 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
       <c r="Y46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
@@ -3797,13 +3899,16 @@
         <v>200</v>
       </c>
       <c r="AD46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3951,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3992,7 +4103,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -4025,7 +4136,7 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -4040,11 +4151,11 @@
         <v>100</v>
       </c>
       <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
         <v>200</v>
       </c>
-      <c r="W49" s="3">
-        <v>100</v>
-      </c>
       <c r="X49" s="3">
         <v>100</v>
       </c>
@@ -4064,13 +4175,16 @@
         <v>100</v>
       </c>
       <c r="AD49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE49" s="3">
         <v>200</v>
       </c>
-      <c r="AE49" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,13 +4364,16 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,40 +4548,43 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
@@ -4467,7 +4593,7 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
@@ -4482,25 +4608,25 @@
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>400</v>
       </c>
       <c r="AB54" s="3">
         <v>400</v>
@@ -4512,10 +4638,13 @@
         <v>400</v>
       </c>
       <c r="AE54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,37 +4710,38 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
       </c>
       <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
         <v>1400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
       </c>
       <c r="I57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
       </c>
       <c r="M57" s="3">
         <v>1000</v>
@@ -4622,55 +4753,58 @@
         <v>1000</v>
       </c>
       <c r="P57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1000</v>
       </c>
       <c r="R57" s="3">
         <v>1000</v>
       </c>
       <c r="S57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>800</v>
       </c>
       <c r="U57" s="3">
         <v>800</v>
       </c>
       <c r="V57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="W57" s="3">
         <v>600</v>
       </c>
       <c r="X57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y57" s="3">
         <v>500</v>
       </c>
       <c r="Z57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA57" s="3">
         <v>400</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>600</v>
       </c>
       <c r="AB57" s="3">
         <v>600</v>
       </c>
       <c r="AC57" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD57" s="3">
         <v>500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4678,271 +4812,280 @@
         <v>5700</v>
       </c>
       <c r="E58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3600</v>
       </c>
       <c r="N58" s="3">
         <v>3600</v>
       </c>
       <c r="O58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>2000</v>
       </c>
       <c r="X58" s="3">
         <v>2000</v>
       </c>
       <c r="Y58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3800</v>
-      </c>
-      <c r="X59" s="3">
-        <v>3300</v>
       </c>
       <c r="Y59" s="3">
         <v>3300</v>
       </c>
       <c r="Z59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AA59" s="3">
         <v>2900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E60" s="3">
         <v>14500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -4954,7 +5097,7 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -4966,13 +5109,13 @@
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O61" s="3">
         <v>300</v>
@@ -4981,7 +5124,7 @@
         <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5096,26 +5242,29 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3">
         <v>2200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E66" s="3">
         <v>14600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-55200</v>
       </c>
       <c r="M72" s="3">
         <v>-55200</v>
       </c>
       <c r="N72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-57000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-52800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-51600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-50900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-50100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-49100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-48500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-47800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-47100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-45700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-45100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-44100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-43700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-9700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-7600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-7400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-2200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1100</v>
       </c>
       <c r="G81" s="3">
         <v>-1100</v>
       </c>
       <c r="H81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-700</v>
       </c>
       <c r="Y81" s="3">
         <v>-700</v>
       </c>
       <c r="Z81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,37 +7357,40 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
       </c>
       <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -7182,58 +7399,61 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
       </c>
       <c r="Z89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA89" s="3">
         <v>-200</v>
       </c>
       <c r="AB89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7300,12 +7521,12 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -7342,20 +7563,23 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>8</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>600</v>
       </c>
       <c r="F100" s="3">
+        <v>600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>300</v>
       </c>
       <c r="Z100" s="3">
         <v>300</v>
       </c>
       <c r="AA100" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AD100" s="3">
-        <v>100</v>
-      </c>
       <c r="AE100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8200,40 +8452,40 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -8248,22 +8500,22 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
         <v>100</v>
       </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
@@ -8272,9 +8524,12 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
